--- a/dataset/node_class.xlsx
+++ b/dataset/node_class.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16550" windowHeight="9800"/>
+    <workbookView windowHeight="17870"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,103 +16,103 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
-    <t>省份</t>
-  </si>
-  <si>
-    <t>编号</t>
-  </si>
-  <si>
-    <t>北京市</t>
-  </si>
-  <si>
-    <t>天津市</t>
-  </si>
-  <si>
-    <t>河北省</t>
-  </si>
-  <si>
-    <t>山西省</t>
-  </si>
-  <si>
-    <t>内蒙古</t>
-  </si>
-  <si>
-    <t>辽宁省</t>
-  </si>
-  <si>
-    <t>吉林省</t>
-  </si>
-  <si>
-    <t>黑龙江</t>
-  </si>
-  <si>
-    <t>上海市</t>
-  </si>
-  <si>
-    <t>江苏省</t>
-  </si>
-  <si>
-    <t>浙江省</t>
-  </si>
-  <si>
-    <t>安徽省</t>
-  </si>
-  <si>
-    <t>福建省</t>
-  </si>
-  <si>
-    <t>江西省</t>
-  </si>
-  <si>
-    <t>山东省</t>
-  </si>
-  <si>
-    <t>河南省</t>
-  </si>
-  <si>
-    <t>湖北省</t>
-  </si>
-  <si>
-    <t>湖南省</t>
-  </si>
-  <si>
-    <t>广东省</t>
-  </si>
-  <si>
-    <t>广西</t>
-  </si>
-  <si>
-    <t>海南省</t>
-  </si>
-  <si>
-    <t>重庆市</t>
-  </si>
-  <si>
-    <t>四川省</t>
-  </si>
-  <si>
-    <t>贵州省</t>
-  </si>
-  <si>
-    <t>云南省</t>
-  </si>
-  <si>
-    <t>西藏</t>
-  </si>
-  <si>
-    <t>陕西省</t>
-  </si>
-  <si>
-    <t>甘肃省</t>
-  </si>
-  <si>
-    <t>青海省</t>
-  </si>
-  <si>
-    <t>宁夏</t>
-  </si>
-  <si>
-    <t>新疆</t>
+    <t>Province</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>Beijing</t>
+  </si>
+  <si>
+    <t>Tianjin</t>
+  </si>
+  <si>
+    <t>Hebei</t>
+  </si>
+  <si>
+    <t>Shanxi</t>
+  </si>
+  <si>
+    <t>Neimeng</t>
+  </si>
+  <si>
+    <t>Liaoning</t>
+  </si>
+  <si>
+    <t>Jilin</t>
+  </si>
+  <si>
+    <t>Heilongjiang</t>
+  </si>
+  <si>
+    <t>Shanghai</t>
+  </si>
+  <si>
+    <t>Jiangsu</t>
+  </si>
+  <si>
+    <t>Zhejiang</t>
+  </si>
+  <si>
+    <t>Anhui</t>
+  </si>
+  <si>
+    <t>Fujian</t>
+  </si>
+  <si>
+    <t>Jiangxi</t>
+  </si>
+  <si>
+    <t>Shandong</t>
+  </si>
+  <si>
+    <t>Henan</t>
+  </si>
+  <si>
+    <t>Hubei</t>
+  </si>
+  <si>
+    <t>Hunan</t>
+  </si>
+  <si>
+    <t>Guangdong</t>
+  </si>
+  <si>
+    <t>Guangxi</t>
+  </si>
+  <si>
+    <t>Hainan</t>
+  </si>
+  <si>
+    <t>Chongqing</t>
+  </si>
+  <si>
+    <t>Sichuan</t>
+  </si>
+  <si>
+    <t>Guizhou</t>
+  </si>
+  <si>
+    <t>Yunnan</t>
+  </si>
+  <si>
+    <t>Tibet</t>
+  </si>
+  <si>
+    <t>Shannxi</t>
+  </si>
+  <si>
+    <t>Gansu</t>
+  </si>
+  <si>
+    <t>Qinghai</t>
+  </si>
+  <si>
+    <t>Ningxia</t>
+  </si>
+  <si>
+    <t>Xinjiang</t>
   </si>
 </sst>
 </file>
@@ -120,8 +120,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -141,39 +141,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -187,9 +156,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,29 +172,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,6 +193,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
@@ -247,11 +208,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -271,8 +254,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -287,13 +287,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -305,25 +389,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,7 +449,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,127 +467,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,6 +478,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -520,41 +544,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -572,6 +561,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -584,10 +584,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -596,133 +596,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1050,7 +1050,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
